--- a/data/xlsx/2023-21.xlsx
+++ b/data/xlsx/2023-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F276EB2-10E1-4949-B0ED-D7D82FA1A1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE71E6-708C-1E45-9676-C019A857565E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="158">
   <si>
     <t>team</t>
   </si>
@@ -497,6 +497,30 @@
   </si>
   <si>
     <t>Katy 4 Names</t>
+  </si>
+  <si>
+    <t>13:13</t>
+  </si>
+  <si>
+    <t>09:13</t>
+  </si>
+  <si>
+    <t>15:29</t>
+  </si>
+  <si>
+    <t>03:45</t>
+  </si>
+  <si>
+    <t>00:06.8</t>
+  </si>
+  <si>
+    <t>02:26</t>
+  </si>
+  <si>
+    <t>12:32</t>
+  </si>
+  <si>
+    <t>07:24</t>
   </si>
 </sst>
 </file>
@@ -538,15 +562,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,12 +954,15 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -956,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -973,15 +996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1015,7 +1030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1032,8 +1047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1078,7 +1092,7 @@
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1090,20 +1104,19 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1127,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1126,20 +1139,19 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1150,11 +1162,11 @@
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.1013888888888889</v>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -1168,20 +1180,20 @@
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1249,7 +1261,7 @@
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1258,16 +1270,16 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1278,25 +1290,25 @@
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.30833333333333335</v>
+      <c r="D16" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1926,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2041,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -2043,7 +2055,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -2057,7 +2069,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2071,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2085,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -2099,15 +2111,10 @@
         <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3986,11 +3993,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83BA9D-69FE-354C-9B1D-0DED66719DA7}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4024,7 +4036,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>43</v>
@@ -4076,7 +4087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -4121,7 +4132,7 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4136,16 +4147,16 @@
       <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4156,7 +4167,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4168,20 +4179,19 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4192,7 +4202,7 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4207,20 +4217,20 @@
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -4259,25 +4269,25 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.52222222222222225</v>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4291,24 +4301,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46634B56-FD4C-424E-8F55-B3F7368CF699}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4327,13 +4335,6 @@
       <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4345,35 +4346,14 @@
       <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="5">
-        <v>45027</v>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4390,7 +4370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -4407,7 +4387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4424,7 +4404,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>48</v>
@@ -4473,15 +4452,13 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.55069444444444449</v>
+      <c r="D9" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="3">
@@ -4507,8 +4484,8 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.3840277777777778</v>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -4516,8 +4493,7 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="3">
@@ -4543,8 +4519,8 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.64513888888888882</v>
+      <c r="D11" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
@@ -4552,8 +4528,7 @@
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="3">
@@ -4569,48 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4618,15 +4552,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629250B4-9D89-D84D-8601-7E487280526B}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4643,7 +4580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4660,8 +4597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4678,7 +4614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -4695,7 +4631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -4712,7 +4648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -4750,14 +4686,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4772,30 +4708,27 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4813,31 +4746,31 @@
       <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.66666666666666663</v>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -4845,31 +4778,31 @@
       <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.15625</v>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -4880,31 +4813,31 @@
       <c r="H12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
-        <v>7.8703703703703702E-5</v>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -4912,20 +4845,20 @@
       <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -4956,13 +4889,8 @@
       <c r="J15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -4978,7 +4906,6 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>70</v>
       </c>
@@ -4991,11 +4918,6 @@
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/2023-21.xlsx
+++ b/data/xlsx/2023-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE71E6-708C-1E45-9676-C019A857565E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683573F1-8D35-8946-A6DE-CF6843A12D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,12 @@
     <sheet name="4-2" sheetId="10" r:id="rId10"/>
     <sheet name="5-1" sheetId="11" r:id="rId11"/>
     <sheet name="5-2" sheetId="12" r:id="rId12"/>
+    <sheet name="6-1" sheetId="13" r:id="rId13"/>
+    <sheet name="6-2" sheetId="14" r:id="rId14"/>
+    <sheet name="7-1" sheetId="15" r:id="rId15"/>
+    <sheet name="7-2" sheetId="16" r:id="rId16"/>
+    <sheet name="8-1" sheetId="17" r:id="rId17"/>
+    <sheet name="8-2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="195">
   <si>
     <t>team</t>
   </si>
@@ -304,9 +310,6 @@
     <t>Katy Mevyn</t>
   </si>
   <si>
-    <t>Michael Pawlo</t>
-  </si>
-  <si>
     <t>Jess Kraft</t>
   </si>
   <si>
@@ -521,13 +524,127 @@
   </si>
   <si>
     <t>07:24</t>
+  </si>
+  <si>
+    <t>2023-05-02</t>
+  </si>
+  <si>
+    <t>12:59</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Cross-checking</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>07:57</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>07:11</t>
+  </si>
+  <si>
+    <t>K. Laux</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>03:55</t>
+  </si>
+  <si>
+    <t>13:39</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>01:57</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>Too Many Men on the Ice</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>Holding</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:17</t>
+  </si>
+  <si>
+    <t>07:43</t>
+  </si>
+  <si>
+    <t>02:48</t>
+  </si>
+  <si>
+    <t>00:48</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>05:36</t>
+  </si>
+  <si>
+    <t>02:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -540,6 +657,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,11 +687,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,7 +751,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -731,7 +857,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -883,64 +1009,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A857C39-4C17-6B48-BC82-3782AE7F0593}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -953,13 +1083,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F77662-85C3-FE41-9ACE-6FBE1A67E817}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -990,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -1096,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1131,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1166,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -1236,7 +1375,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1265,13 +1404,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -1294,13 +1433,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -1319,15 +1458,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450F1CF0-FF0D-774C-B31F-BFF7D5C2F8DA}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1344,7 +1495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1355,21 +1506,13 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1386,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1403,7 +1546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1416,12 +1559,11 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1466,11 +1608,11 @@
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1478,20 +1620,19 @@
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1502,17 +1643,17 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1520,28 +1661,20 @@
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1573,7 +1706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>73</v>
@@ -1601,14 +1734,6 @@
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1619,13 +1744,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9836F90F-3A84-5E49-AE71-F1C26CBA4A2E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1653,21 +1790,13 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1684,7 +1813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1701,7 +1830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1718,8 +1847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1764,11 +1892,11 @@
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1782,16 +1910,16 @@
       <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1802,11 +1930,11 @@
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1814,20 +1942,19 @@
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1838,11 +1965,11 @@
       <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -1856,21 +1983,20 @@
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1902,7 +2028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1913,7 +2039,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -1928,6 +2054,2182 @@
         <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389257C8-3573-F843-9E5A-2EBD91E14D1C}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C39760-2759-A74E-B0D3-81B0685A0BA9}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBBFFFC-4282-A34F-AAA4-80ED4CA88FD8}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A1292-270D-E74C-B206-FD6183DC56FB}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4380B9-77BE-B944-B2A8-F33CCBA23CBC}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A001C3-58DF-634F-ABCC-8E80DDD9C871}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1940,180 +4242,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2126,13 +4427,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D15C80-B2E9-E341-A39E-0E8718A58F8A}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2163,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -2269,7 +4579,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -2307,7 +4617,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>79</v>
@@ -2380,7 +4690,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -2418,7 +4728,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>79</v>
@@ -2453,7 +4763,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -2523,7 +4833,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
@@ -2593,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>67</v>
@@ -2624,7 +4934,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2655,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -2761,7 +5083,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -2793,7 +5115,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -2828,10 +5150,10 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -2866,7 +5188,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>81</v>
@@ -2901,7 +5223,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -2910,7 +5232,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>36</v>
@@ -2939,10 +5261,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -2974,7 +5296,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -3006,13 +5328,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>36</v>
@@ -3073,7 +5395,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
@@ -3100,13 +5422,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE760F7-EFE6-AD47-AC0C-6B2330B3709C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3137,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3243,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -3272,13 +5604,13 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3304,7 +5636,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -3333,7 +5665,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -3365,7 +5697,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
@@ -3397,7 +5729,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -3426,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -3458,7 +5790,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>26</v>
@@ -3485,13 +5817,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF1A98E-D775-BA4B-B723-7D5E487BD178}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3522,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3628,7 +5970,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -3663,7 +6005,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -3698,7 +6040,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -3730,7 +6072,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -3765,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -3797,7 +6139,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -3832,7 +6174,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -3867,7 +6209,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -3902,7 +6244,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -3966,7 +6308,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -3993,13 +6335,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83BA9D-69FE-354C-9B1D-0DED66719DA7}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4030,7 +6382,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -4136,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -4171,10 +6523,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -4206,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -4273,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -4305,242 +6657,242 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4554,13 +6906,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629250B4-9D89-D84D-8601-7E487280526B}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4591,60 +6951,60 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4697,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -4770,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -4802,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -4837,7 +7197,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -4901,7 +7261,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>

--- a/data/xlsx/2023-21.xlsx
+++ b/data/xlsx/2023-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683573F1-8D35-8946-A6DE-CF6843A12D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEB970-1D87-6749-8129-1C99F2FC3DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="195">
   <si>
     <t>team</t>
   </si>
@@ -644,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -657,14 +657,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,11 +679,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2751,7 +2742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBBFFFC-4282-A34F-AAA4-80ED4CA88FD8}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3297,7 +3290,7 @@
       <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3610,7 +3603,7 @@
       <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3846,9 +3839,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A001C3-58DF-634F-ABCC-8E80DDD9C871}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3901,88 +3894,194 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3990,246 +4089,94 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4242,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2023-21.xlsx
+++ b/data/xlsx/2023-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEB970-1D87-6749-8129-1C99F2FC3DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B7B8C0-53FF-4B48-93F2-BBDB8AFD3135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="12" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="194">
   <si>
     <t>team</t>
   </si>
@@ -535,9 +535,6 @@
     <t>10:43</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Cross-checking</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t>07:11</t>
   </si>
   <si>
-    <t>K. Laux</t>
-  </si>
-  <si>
     <t>2023-09-02</t>
   </si>
   <si>
@@ -638,13 +632,16 @@
   </si>
   <si>
     <t>02:15</t>
+  </si>
+  <si>
+    <t>Kevin Laux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,13 +655,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -676,16 +685,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2057,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389257C8-3573-F843-9E5A-2EBD91E14D1C}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2275,11 +2286,8 @@
       <c r="D12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>45</v>
@@ -2452,7 +2460,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>87</v>
@@ -2487,7 +2495,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -2525,13 +2533,13 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>170</v>
+      <c r="F11" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
@@ -2560,13 +2568,13 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>170</v>
+      <c r="F12" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>131</v>
@@ -2598,7 +2606,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -2636,13 +2644,13 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>170</v>
+      <c r="F14" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -2674,7 +2682,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>73</v>
@@ -2709,7 +2717,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>79</v>
@@ -2791,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -2838,7 +2846,7 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2897,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -2932,7 +2940,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -2964,7 +2972,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -3002,7 +3010,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -3037,7 +3045,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>79</v>
@@ -3072,7 +3080,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -3171,13 +3179,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>45</v>
@@ -3243,7 +3251,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3360,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
@@ -3424,7 +3432,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -3453,13 +3461,13 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
@@ -3556,7 +3564,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3587,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>72</v>
@@ -3662,7 +3670,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -3697,7 +3705,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -3732,7 +3740,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -3767,7 +3775,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -3805,7 +3813,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -3841,7 +3849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A001C3-58DF-634F-ABCC-8E80DDD9C871}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3888,7 +3898,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3943,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -3981,7 +3991,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -4019,7 +4029,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -4057,7 +4067,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -4168,10 +4178,10 @@
         <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>36</v>
@@ -4189,7 +4199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2023-21.xlsx
+++ b/data/xlsx/2023-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B7B8C0-53FF-4B48-93F2-BBDB8AFD3135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DFCFAF-AD08-3547-8DA9-9B2FBC0C0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="12" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="6" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,6 @@
     <t>Brad Lintner</t>
   </si>
   <si>
-    <t>Billy Oehlschlager</t>
-  </si>
-  <si>
     <t>Craig Klueber</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>Lori Defnet</t>
   </si>
   <si>
-    <t>Katy Mevyn</t>
-  </si>
-  <si>
     <t>Jess Kraft</t>
   </si>
   <si>
@@ -635,6 +629,12 @@
   </si>
   <si>
     <t>Kevin Laux</t>
+  </si>
+  <si>
+    <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>Katy Meyvn</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A857C39-4C17-6B48-BC82-3782AE7F0593}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1034,7 +1036,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1045,7 +1047,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1056,7 +1058,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>77</v>
@@ -1067,7 +1069,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>78</v>
@@ -1131,7 +1133,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -1237,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1272,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1307,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -1377,7 +1379,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1406,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -1435,13 +1437,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -1508,7 +1510,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -1614,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1649,13 +1651,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1719,7 +1721,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>73</v>
@@ -1792,7 +1794,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -1898,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1936,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1971,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -2041,7 +2043,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -2068,7 +2070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389257C8-3573-F843-9E5A-2EBD91E14D1C}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2114,7 +2116,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -2220,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -2284,10 +2286,10 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>45</v>
@@ -2354,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -2460,10 +2462,10 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
@@ -2495,7 +2497,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -2533,13 +2535,13 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
@@ -2568,16 +2570,16 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>
@@ -2606,16 +2608,16 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>28</v>
@@ -2644,13 +2646,13 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -2682,13 +2684,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>28</v>
@@ -2717,13 +2719,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>28</v>
@@ -2799,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -2905,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -2940,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -2972,7 +2974,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -3010,7 +3012,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
@@ -3045,7 +3047,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>79</v>
@@ -3080,7 +3082,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -3115,7 +3117,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -3179,13 +3181,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>45</v>
@@ -3251,7 +3253,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3368,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
@@ -3432,7 +3434,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -3461,13 +3463,13 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
@@ -3490,7 +3492,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
@@ -3564,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3595,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>72</v>
@@ -3670,13 +3672,13 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
@@ -3705,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -3740,7 +3742,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -3775,7 +3777,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -3813,7 +3815,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -3898,7 +3900,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -3953,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -3991,7 +3993,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -4029,7 +4031,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -4067,7 +4069,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -4105,7 +4107,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
@@ -4172,7 +4174,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -4199,7 +4201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4257,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -4268,7 +4272,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -4299,10 +4303,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
@@ -4310,7 +4314,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -4333,7 +4337,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,7 +4351,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4366,10 +4370,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -4430,7 +4434,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -4536,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -4574,7 +4578,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>79</v>
@@ -4647,7 +4651,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -4685,7 +4689,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>79</v>
@@ -4720,7 +4724,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -4790,7 +4794,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
@@ -4860,10 +4864,10 @@
         <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>67</v>
@@ -4934,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -5040,7 +5044,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -5072,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -5107,10 +5111,10 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
@@ -5145,10 +5149,10 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -5180,7 +5184,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -5189,7 +5193,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>36</v>
@@ -5218,10 +5222,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -5253,7 +5257,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -5285,13 +5289,13 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>36</v>
@@ -5352,7 +5356,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
@@ -5426,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -5532,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -5561,13 +5565,13 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -5593,7 +5597,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -5622,7 +5626,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -5654,7 +5658,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
@@ -5686,7 +5690,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -5715,7 +5719,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -5747,7 +5751,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>26</v>
@@ -5821,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -5927,7 +5931,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -5962,13 +5966,13 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>36</v>
@@ -5997,7 +6001,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -6029,7 +6033,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -6064,7 +6068,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -6096,7 +6100,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>35</v>
@@ -6131,7 +6135,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -6166,7 +6170,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -6201,7 +6205,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -6265,7 +6269,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
@@ -6292,7 +6296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83BA9D-69FE-354C-9B1D-0DED66719DA7}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6339,7 +6343,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -6445,13 +6449,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>36</v>
@@ -6480,10 +6484,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -6515,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -6582,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -6656,7 +6660,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
@@ -6762,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>34</v>
@@ -6794,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -6829,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>34</v>
@@ -6908,7 +6912,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>42</v>
@@ -7014,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -7087,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -7119,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -7154,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -7218,7 +7222,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>

--- a/data/xlsx/2023-21.xlsx
+++ b/data/xlsx/2023-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DFCFAF-AD08-3547-8DA9-9B2FBC0C0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC82DA-59D8-C348-9698-EE09054B5EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="6" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -4201,9 +4201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6296,7 +6294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83BA9D-69FE-354C-9B1D-0DED66719DA7}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
